--- a/example.xlsx
+++ b/example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>名称</t>
   </si>
@@ -71,6 +71,75 @@
   </si>
   <si>
     <t>抗击退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乡长的工作服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>看起来挺合身;但实际上似乎有的地方线头没剪掉;有点戳人</t>
+  </si>
+  <si>
+    <t>胸甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔子的工作服</t>
+  </si>
+  <si>
+    <t>安酱的帽子</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>一顶鸭舌帽;安酱很喜欢戴着它去种树苗</t>
+  </si>
+  <si>
+    <t>头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚不可摧的鞘翅</t>
+  </si>
+  <si>
+    <t>443</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,12 +517,12 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
@@ -524,17 +593,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -545,37 +634,69 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -585,16 +706,24 @@
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -606,15 +735,15 @@
     </row>
     <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>名称</t>
   </si>
@@ -133,13 +133,6 @@
   </si>
   <si>
     <t>+5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚不可摧的鞘翅</t>
-  </si>
-  <si>
-    <t>443</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,11 +507,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -706,20 +697,12 @@
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -734,16 +717,16 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -754,7 +737,7 @@
       <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -814,7 +797,7 @@
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -834,7 +817,7 @@
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -892,26 +875,6 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -78,9 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>303</t>
-  </si>
-  <si>
     <t>看起来挺合身;但实际上似乎有的地方线头没剪掉;有点戳人</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>安酱的帽子</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
     <t>一顶鸭舌帽;安酱很喜欢戴着它去种树苗</t>
   </si>
   <si>
@@ -133,6 +127,14 @@
   </si>
   <si>
     <t>+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diamond_chestplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diamond_helmet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +516,7 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
@@ -589,31 +591,31 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -626,34 +628,34 @@
     </row>
     <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -666,27 +668,27 @@
     </row>
     <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
